--- a/biology/Histoire de la zoologie et de la botanique/Oleg_Kabakov/Oleg_Kabakov.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Oleg_Kabakov/Oleg_Kabakov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oleg Nikolaïevitch Kabakov (Олег Николаевич Кабаков), né le 11 septembre 1928 à Léningrad (URSS) et mort le 26 octobre 2009 à Saint-Pétersbourg (Russie), est un géologue et entomologiste soviétique et russe qui découvrit plusieurs espèces d'insectes et fut lauréat du prix Lénine en 1964.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Léningrad. Il n'a aucune formation universitaire et termine seulement l'École de la jeunesse ouvrière, puis suit des cours de collecteur à l'Institut géologique Karpinski.
 Pendant quarante ans, il fait de nombreuses excursions géologiques, de Transbaïkalie à l'Extrême-Orient russe (1957-1961), en Chine et au Viêt Nam (1961-1963), en Afghanistan (1969-1973) et au Laos. Il rassemble une collection riche d'environ 150 000 spécimens de coléoptères représentant plus de 16 000 genres qu'il lègue à l'Institut de zoologie de l'Académie des sciences, dont il fut le collaborateur. De 1974 à 1989, il travaille à l'Institut de géologie Karpinski. L'un des gisements d'étain le plus important d'URSS lui fut ouvert pour ses travaux (Komsomlskoïe).
@@ -547,11 +561,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres
-« Пластинчатоусые жуки подсемейства Scarabaeinae (Coleoptera: Scarabaeidae) фауны России и сопредельных стран. » [Scarabées de la sous-famille des Scarabaeinae (Coleoptera: Scarabaeidae) de la faune de Russie et des pays limitrophes], Moscou, éd. KMK (Товарищество научных изданий КМК), 2006, 374 pages.
-«С молотком и сачком» (записки геолога и энтомолога) [Avec le marteau et le filet (Mémoires d'un géologue et entomologiste)], éd. VSEGEI (Institut Karpinski), Saint-Pétersbourg., 2008. 178 pages.
-Articles
-Жесткокрылые эпифитов в тропических лесах Вьетнама [Les Coléoptères des épiphytes des forêts tropicales du Viêt Nam] // Энтомол. обозр., 1967, т. 46, 3e éd.: p. 690—698.
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>« Пластинчатоусые жуки подсемейства Scarabaeinae (Coleoptera: Scarabaeidae) фауны России и сопредельных стран. » [Scarabées de la sous-famille des Scarabaeinae (Coleoptera: Scarabaeidae) de la faune de Russie et des pays limitrophes], Moscou, éd. KMK (Товарищество научных изданий КМК), 2006, 374 pages.
+«С молотком и сачком» (записки геолога и энтомолога) [Avec le marteau et le filet (Mémoires d'un géologue et entomologiste)], éd. VSEGEI (Institut Karpinski), Saint-Pétersbourg., 2008. 178 pages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oleg_Kabakov</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oleg_Kabakov</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Жесткокрылые эпифитов в тропических лесах Вьетнама [Les Coléoptères des épiphytes des forêts tropicales du Viêt Nam] // Энтомол. обозр., 1967, т. 46, 3e éd.: p. 690—698.
 Обзор пластинчатоусых жуков подрода Euonthophagus рода Onthophagus фауны СССР и сопредельных стран [Aperçu des scarabées du sous-genre Euonthophagus (en) du genre Onthophagus de la faune d'URSS et des pays limitrophes] // Энтомол. обозр., 1977, т. 56, 2e éd. : p. 383—394.
 Обзор пластинчатоусых жуков подсемейства Coprinae (Scarabaeidae, Coleoptera) Дальнего Востока СССР и сопредельных территорий [Aperçu des scarabées de la sous-famille des Coprinae (Scarabaeidae, Coleoptera) de l'Extrême-Orient soviétique et des territoires limitrophes] // dans le livre « Les Coléoptères d'Extrême-Orient russe et de Sibérie orientale», Vladivostok, 1979: p. 58—98.
 Ревизия жуков рода Scarabaeus (Coleoptera, Scarabaeidae) фауны СССР [Révision des Coléoptères du genre Scarabaeus (Coleoptera, Scarabaeidae) de la faune d'URSS] // Энтомол. обозр., 1980, т. 59, 4e éd. : p. 819—829.
@@ -564,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Oleg_Kabakov</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Oleg_Kabakov</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>122 espèces d'insectes et de nouveaux genres lui ont été dédiés dont:
 Genres
